--- a/ERP_Accounting/TestInput/InputSheet.xlsx
+++ b/ERP_Accounting/TestInput/InputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="114">
   <si>
     <t>TCID</t>
   </si>
@@ -354,6 +354,42 @@
   </si>
   <si>
     <t>(//*[text()='OK'])[6]</t>
+  </si>
+  <si>
+    <t>Wait For Stock Item</t>
+  </si>
+  <si>
+    <t>//*[@id='mi_a_stock_items']/a</t>
+  </si>
+  <si>
+    <t>Mouse Click</t>
+  </si>
+  <si>
+    <t>stockCategories</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Wait For Alert Button</t>
+  </si>
+  <si>
+    <t>Click On Alert Button</t>
+  </si>
+  <si>
+    <t>stockValidation</t>
+  </si>
+  <si>
+    <t>//*[@id="x_Category_Name"]</t>
+  </si>
+  <si>
+    <t>//*[@id="btnAction"]</t>
+  </si>
+  <si>
+    <t>iphonex1</t>
   </si>
 </sst>
 </file>
@@ -755,7 +791,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -800,7 +836,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -812,7 +848,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1103,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1867,12 +1903,439 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="73.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>